--- a/data/Metadata.xlsx
+++ b/data/Metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Twins_microbiome\data\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Twins_microbiome\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528D266E-4CE8-42EA-A1C5-55BE4A670B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CACA2B-A912-426A-87F9-135BD8443BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,35 +20,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="79">
   <si>
     <t>Age</t>
   </si>
   <si>
-    <t>Occupation</t>
-  </si>
-  <si>
-    <t>Soap</t>
-  </si>
-  <si>
     <t>Diet</t>
   </si>
   <si>
     <t>T4A</t>
   </si>
   <si>
-    <t>survice</t>
-  </si>
-  <si>
     <t>T4B</t>
   </si>
   <si>
     <t>T5A</t>
   </si>
   <si>
-    <t>Student</t>
-  </si>
-  <si>
     <t>Mixed</t>
   </si>
   <si>
@@ -58,9 +46,6 @@
     <t>T6A</t>
   </si>
   <si>
-    <t>Lux</t>
-  </si>
-  <si>
     <t>T6B</t>
   </si>
   <si>
@@ -79,9 +64,6 @@
     <t>T9A</t>
   </si>
   <si>
-    <t>Shopkeeper</t>
-  </si>
-  <si>
     <t>T9B</t>
   </si>
   <si>
@@ -94,9 +76,6 @@
     <t>T12A</t>
   </si>
   <si>
-    <t>Fitness Trainer</t>
-  </si>
-  <si>
     <t>T12B</t>
   </si>
   <si>
@@ -106,31 +85,10 @@
     <t>T13B</t>
   </si>
   <si>
-    <t>Private survice</t>
-  </si>
-  <si>
-    <t>Santoor</t>
-  </si>
-  <si>
-    <t>Dove</t>
-  </si>
-  <si>
-    <t>No soap</t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
     <t>Vegetarian</t>
-  </si>
-  <si>
-    <t>Dettol</t>
-  </si>
-  <si>
-    <t>Patanjali</t>
-  </si>
-  <si>
-    <t>Medimix</t>
   </si>
   <si>
     <t>Male</t>
@@ -688,7 +646,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -700,786 +658,678 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2">
         <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2">
         <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2">
         <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2">
         <v>20</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2">
         <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2">
         <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2">
         <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E9" s="2">
         <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E10" s="2">
         <v>23</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E11" s="2">
         <v>23</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E12" s="2">
         <v>21</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2">
         <v>22</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E14" s="2">
         <v>16</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>35</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E15" s="2">
         <v>16</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>35</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E16" s="2">
         <v>23</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E17" s="2">
         <v>23</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E18" s="2">
         <v>23</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E19" s="2">
         <v>23</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E20" s="2">
         <v>26</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E21" s="2">
         <v>26</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E22" s="2">
         <v>22</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>30</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E23" s="2">
         <v>22</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>30</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E24" s="2">
         <v>18</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>30</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E25" s="2">
         <v>18</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>30</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E26" s="2">
         <v>20</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E27" s="2">
         <v>20</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/data/Metadata.xlsx
+++ b/data/Metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Twins_microbiome\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Twins\Twins_microbiome\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CACA2B-A912-426A-87F9-135BD8443BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4223D688-FE47-4B64-9853-2A66C411872A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,23 +20,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="93">
   <si>
     <t>Age</t>
   </si>
   <si>
+    <t>Occupation</t>
+  </si>
+  <si>
+    <t>Soap</t>
+  </si>
+  <si>
     <t>Diet</t>
   </si>
   <si>
     <t>T4A</t>
   </si>
   <si>
+    <t>survice</t>
+  </si>
+  <si>
     <t>T4B</t>
   </si>
   <si>
     <t>T5A</t>
   </si>
   <si>
+    <t>Student</t>
+  </si>
+  <si>
     <t>Mixed</t>
   </si>
   <si>
@@ -46,6 +58,9 @@
     <t>T6A</t>
   </si>
   <si>
+    <t>Lux</t>
+  </si>
+  <si>
     <t>T6B</t>
   </si>
   <si>
@@ -64,6 +79,9 @@
     <t>T9A</t>
   </si>
   <si>
+    <t>Shopkeeper</t>
+  </si>
+  <si>
     <t>T9B</t>
   </si>
   <si>
@@ -76,6 +94,9 @@
     <t>T12A</t>
   </si>
   <si>
+    <t>Fitness Trainer</t>
+  </si>
+  <si>
     <t>T12B</t>
   </si>
   <si>
@@ -85,10 +106,31 @@
     <t>T13B</t>
   </si>
   <si>
+    <t>Private survice</t>
+  </si>
+  <si>
+    <t>Santoor</t>
+  </si>
+  <si>
+    <t>Dove</t>
+  </si>
+  <si>
+    <t>No soap</t>
+  </si>
+  <si>
     <t>Gender</t>
   </si>
   <si>
     <t>Vegetarian</t>
+  </si>
+  <si>
+    <t>Dettol</t>
+  </si>
+  <si>
+    <t>Patanjali</t>
+  </si>
+  <si>
+    <t>Medimix</t>
   </si>
   <si>
     <t>Male</t>
@@ -646,7 +688,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -658,678 +700,786 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2">
         <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2">
         <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2">
         <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2">
         <v>20</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2">
         <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2">
         <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2">
         <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2">
         <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E10" s="2">
         <v>23</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E11" s="2">
         <v>23</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E12" s="2">
         <v>21</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2">
         <v>22</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2">
         <v>16</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2">
         <v>16</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2">
         <v>23</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2">
         <v>23</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2">
         <v>23</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2">
         <v>23</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2">
         <v>26</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2">
         <v>26</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E22" s="2">
         <v>22</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2">
         <v>22</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E24" s="2">
         <v>18</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E25" s="2">
         <v>18</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E26" s="2">
         <v>20</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E27" s="2">
         <v>20</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
